--- a/gerenciador/httpdocs/furniture/excel/clients/Relatorio.xlsx
+++ b/gerenciador/httpdocs/furniture/excel/clients/Relatorio.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Clientes" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Clientes'!$A$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Clientes'!$A$1:$I$29</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Relatório de Clientes</t>
   </si>
@@ -49,22 +49,7 @@
     <t>marcosguilhermealves@gmail.com</t>
   </si>
   <si>
-    <t>Rua Lauro da Silva, N° 34, Casa 2, 06766100, Parque Marabá, Taboão da Serra - SP</t>
-  </si>
-  <si>
-    <t>João Silva</t>
-  </si>
-  <si>
-    <t>245.236.666-66</t>
-  </si>
-  <si>
-    <t>joaodasilva@teste.com.br</t>
-  </si>
-  <si>
-    <t>Rua Carlos Cunha Filho, N° 25, 06766150, Parque Pinheiros, Taboão da Serra - SP</t>
-  </si>
-  <si>
-    <t>254.452.857-44</t>
+    <t>Rua Lauro da Silva, N° , 06766100, Parque Marabá, Taboão da Serra - SP</t>
   </si>
 </sst>
 </file>
@@ -752,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMI23"/>
+  <dimension ref="A1:AMI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="F18" sqref="F18"/>
@@ -1958,119 +1943,73 @@
     <row r="13" spans="1:1023" customHeight="1" ht="27.9" outlineLevel="1">
       <c r="A13" s="9"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>14</v>
-      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="16"/>
       <c r="J13" s="9"/>
       <c r="K13" s="23"/>
       <c r="L13" s="22"/>
       <c r="M13" s="23"/>
     </row>
-    <row r="14" spans="1:1023" customHeight="1" ht="27.9" outlineLevel="1">
+    <row r="14" spans="1:1023" customHeight="1" ht="12">
       <c r="A14" s="9"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="9"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
     </row>
-    <row r="15" spans="1:1023" customHeight="1" ht="27.9" outlineLevel="1">
+    <row r="15" spans="1:1023" customHeight="1" ht="9">
       <c r="A15" s="9"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="16"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
     </row>
-    <row r="16" spans="1:1023" customHeight="1" ht="12">
-      <c r="A16" s="9"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="23"/>
+    <row r="16" spans="1:1023" customHeight="1" ht="15">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:1023" customHeight="1" ht="9">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+    <row r="17" spans="1:1023" customHeight="1" ht="18.6">
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:1023" customHeight="1" ht="15">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:1023" customHeight="1" ht="18.75">
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:1023" customHeight="1" ht="18.6">
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+    <row r="19" spans="1:1023" customHeight="1" ht="18.75">
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:1023" customHeight="1" ht="18.75">
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:1023" customHeight="1" ht="18.75">
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="1:1023" customHeight="1" ht="18.75">
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:1023" customHeight="1" ht="18.75">
-      <c r="H23" s="28"/>
+      <c r="H21" s="28"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="B6:H6"/>
@@ -2078,8 +2017,6 @@
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555" footer="0.3"/>
